--- a/documents/server_request_catalog.xlsx
+++ b/documents/server_request_catalog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E129E66-6B72-46F5-844B-D040D673EFE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07D6A40-4BF1-4CB0-865F-A818CD077116}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Event-Name</t>
   </si>
@@ -129,13 +129,34 @@
     <t>email, password</t>
   </si>
   <si>
-    <t>only context with userId</t>
-  </si>
-  <si>
     <t>current enqueueKey on owner display</t>
   </si>
   <si>
     <t>enqueueKey, name</t>
+  </si>
+  <si>
+    <t>onyle context with userId (owner)</t>
+  </si>
+  <si>
+    <t>only context with userId (owner)</t>
+  </si>
+  <si>
+    <t>fetchUser</t>
+  </si>
+  <si>
+    <t>cancelUser</t>
+  </si>
+  <si>
+    <t>targetUserId, txt</t>
+  </si>
+  <si>
+    <t>userId from current queue; e.g. txt = 5min; invites and dequeues user</t>
+  </si>
+  <si>
+    <t>userId from current queue; e.g. txt = "sry lul"; deuqueues user and cancel meeting</t>
+  </si>
+  <si>
+    <t>requestUpdateOwnerScreen</t>
   </si>
 </sst>
 </file>
@@ -509,9 +530,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.06640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -564,19 +585,21 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -584,34 +607,50 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
